--- a/mySystem/mySystem/xls/BPVBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/BPVBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\305，PTV生产记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\BPVBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
   <si>
     <r>
       <rPr>
@@ -2267,14 +2267,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2317,47 +2309,6 @@
   <si>
     <t>H</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>M10</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>M12</t>
   </si>
   <si>
     <t>废品：</t>
@@ -3216,7 +3167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3358,273 +3309,270 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3675,6 +3623,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3994,42 +3972,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="81" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="88" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4221,12 +4199,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4240,10 +4218,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -4257,46 +4235,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="77"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="87"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4365,48 +4343,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="101" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="101" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="102"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="101"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4470,15 +4448,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="107"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="106"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4492,13 +4470,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="108"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="107"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4556,15 +4534,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4578,13 +4556,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4598,13 +4576,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4618,15 +4596,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="97" t="s">
+      <c r="J12" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="98"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4640,13 +4618,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="97"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4660,13 +4638,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="98"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4680,13 +4658,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="98"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4700,35 +4678,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="98"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="97"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="99" t="s">
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="100"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4804,48 +4782,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="101" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="101" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="102"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="101"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4909,15 +4887,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="107"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="106"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4931,13 +4909,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="108"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="107"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4973,15 +4951,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="111"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4995,15 +4973,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -5017,13 +4995,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -5037,13 +5015,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -5057,15 +5035,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="97" t="s">
+      <c r="J12" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="98"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -5079,13 +5057,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="97"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -5099,13 +5077,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="98"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -5119,13 +5097,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="98"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -5139,35 +5117,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="98"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="97"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="99" t="s">
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="100"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5243,96 +5221,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="138" t="s">
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="138" t="s">
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="141" t="s">
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="141"/>
+      <c r="P3" s="140"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121" t="s">
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="124" t="s">
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="125" t="s">
+      <c r="P4" s="124" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="133"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="116"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5357,8 +5335,8 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5601,52 +5579,52 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="126" t="s">
+      <c r="A18" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="128"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="129" t="s">
+      <c r="G18" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="131"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="130"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="114"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5681,8 +5659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5695,11 +5673,11 @@
     <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.75" style="1" customWidth="1"/>
@@ -5725,124 +5703,124 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="137" t="s">
+    <row r="2" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="142" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="141" t="s">
+      <c r="E3" s="144"/>
+      <c r="F3" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="141"/>
-      <c r="K3" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="141"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="50" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="54" t="s">
-        <v>100</v>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="145" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="145"/>
+      <c r="P4" s="52" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="122"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="152" t="s">
-        <v>128</v>
-      </c>
-      <c r="O5" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" s="125" t="s">
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="151" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="124" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="116"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
@@ -5855,7 +5833,7 @@
       <c r="I6" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="53" t="s">
         <v>83</v>
       </c>
       <c r="K6" s="33" t="s">
@@ -5867,348 +5845,290 @@
       <c r="M6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="122"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
     </row>
     <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47">
-        <v>1</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="59" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+    </row>
+    <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="58"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+    </row>
+    <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="58"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+    </row>
+    <row r="10" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="58"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="58"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="160"/>
+      <c r="P11" s="160"/>
+    </row>
+    <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="58"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="160"/>
+    </row>
+    <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="58"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+    </row>
+    <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="58"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+    </row>
+    <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="58"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="160"/>
+    </row>
+    <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+    </row>
+    <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="58"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="160"/>
+      <c r="P17" s="160"/>
+    </row>
+    <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="58"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+    </row>
+    <row r="19" spans="1:16" s="54" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="60" t="s">
+      <c r="N19" s="67"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+    </row>
+    <row r="20" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="146" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47">
-        <v>2</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47">
-        <v>3</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-    </row>
-    <row r="10" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47">
-        <v>4</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-    </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47">
-        <v>5</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-    </row>
-    <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47">
-        <v>6</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-    </row>
-    <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47">
-        <v>7</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-    </row>
-    <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47">
-        <v>8</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-    </row>
-    <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47">
-        <v>9</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-    </row>
-    <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="47">
-        <v>10</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="47">
-        <v>11</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="47">
-        <v>12</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-    </row>
-    <row r="19" spans="1:16" s="57" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="N19" s="66"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-    </row>
-    <row r="20" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="147" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="149" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="150"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="149"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="F20:P20"/>
     <mergeCell ref="B5:B6"/>
@@ -6222,6 +6142,7 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C5:C6"/>

--- a/mySystem/mySystem/xls/BPVBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/BPVBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\BPVBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\Github\hzkx\mitcpro\mySystem\mySystem\xls\BPVBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3167,7 +3167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3372,6 +3372,27 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3501,6 +3522,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3576,19 +3612,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,60 +3647,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3972,42 +3966,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="80" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="87" t="s">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4199,12 +4193,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="70"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="77"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4218,10 +4212,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="77"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -4235,46 +4229,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="86"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4343,48 +4337,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="100" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="100" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="101"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="108"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4448,15 +4442,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="106"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="113"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4470,13 +4464,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="107"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="114"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4534,15 +4528,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="95"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="102"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4556,13 +4550,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4576,13 +4570,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="95"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="102"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4596,15 +4590,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="96" t="s">
+      <c r="J12" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="97"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="104"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4618,13 +4612,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="97"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="104"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4638,13 +4632,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="97"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="104"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4658,13 +4652,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="97"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="104"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4678,35 +4672,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="97"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="104"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="98" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="99"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4782,48 +4776,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="100" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="100" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="101"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="108"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4887,15 +4881,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="106"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="113"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4909,13 +4903,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="107"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="114"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4951,15 +4945,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="108" t="s">
+      <c r="J8" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="110"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4973,15 +4967,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="95"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="102"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4995,13 +4989,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -5015,13 +5009,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="95"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="102"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -5035,15 +5029,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="96" t="s">
+      <c r="J12" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="97"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="104"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -5057,13 +5051,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="97"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="104"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -5077,13 +5071,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="97"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="104"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -5097,13 +5091,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="97"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="104"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -5117,38 +5111,43 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="97"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="104"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="98" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="99"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="J12:P16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J8:P8"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -5160,11 +5159,6 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="J9:P11"/>
-    <mergeCell ref="J12:P16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5221,96 +5215,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="137" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="137" t="s">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="140" t="s">
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="140"/>
+      <c r="P3" s="122"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120" t="s">
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="123" t="s">
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="124" t="s">
+      <c r="P4" s="136" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="132"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="115"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="127"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5335,8 +5329,8 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5579,60 +5573,55 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
       <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="128" t="s">
+      <c r="G18" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="142"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112" t="s">
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="113"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="G19:P19"/>
     <mergeCell ref="F4:F5"/>
@@ -5647,6 +5636,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5659,8 +5653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5704,44 +5698,44 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="141" t="s">
+      <c r="E3" s="153"/>
+      <c r="F3" s="157" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="140" t="s">
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="140"/>
+      <c r="J3" s="122"/>
       <c r="K3" s="49" t="s">
         <v>100</v>
       </c>
@@ -5752,75 +5746,75 @@
       <c r="P3" s="51"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="145"/>
+      <c r="A4" s="122"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="155"/>
       <c r="H4" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
       <c r="K4" s="48" t="s">
         <v>99</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="145" t="s">
+      <c r="N4" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="O4" s="145"/>
+      <c r="O4" s="155"/>
       <c r="P4" s="52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="120" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="151" t="s">
+      <c r="L5" s="133"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="O5" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="124" t="s">
+      <c r="P5" s="136" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="115"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="127"/>
       <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
@@ -5845,9 +5839,9 @@
       <c r="M6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="121"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
     </row>
     <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="58"/>
@@ -5859,8 +5853,8 @@
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
       <c r="I7" s="56"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="159"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="74"/>
       <c r="L7" s="55"/>
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
@@ -5877,8 +5871,8 @@
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
       <c r="I8" s="56"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="159"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="74"/>
       <c r="L8" s="55"/>
       <c r="M8" s="56"/>
       <c r="N8" s="56"/>
@@ -5895,13 +5889,13 @@
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="153"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="58"/>
       <c r="L9" s="55"/>
       <c r="M9" s="56"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
@@ -5913,13 +5907,13 @@
       <c r="G10" s="55"/>
       <c r="H10" s="55"/>
       <c r="I10" s="56"/>
-      <c r="J10" s="153"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="58"/>
       <c r="L10" s="55"/>
       <c r="M10" s="56"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
@@ -5931,13 +5925,13 @@
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
       <c r="I11" s="56"/>
-      <c r="J11" s="153"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="58"/>
       <c r="L11" s="55"/>
       <c r="M11" s="56"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58"/>
@@ -5949,13 +5943,13 @@
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
       <c r="I12" s="56"/>
-      <c r="J12" s="153"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="58"/>
       <c r="L12" s="55"/>
       <c r="M12" s="56"/>
       <c r="N12" s="56"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
     </row>
     <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="58"/>
@@ -5967,13 +5961,13 @@
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="56"/>
-      <c r="J13" s="153"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="58"/>
       <c r="L13" s="55"/>
       <c r="M13" s="56"/>
       <c r="N13" s="56"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
     </row>
     <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="58"/>
@@ -5985,13 +5979,13 @@
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
       <c r="I14" s="56"/>
-      <c r="J14" s="153"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="58"/>
       <c r="L14" s="55"/>
       <c r="M14" s="56"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="58"/>
@@ -6003,13 +5997,13 @@
       <c r="G15" s="55"/>
       <c r="H15" s="55"/>
       <c r="I15" s="56"/>
-      <c r="J15" s="153"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="58"/>
       <c r="L15" s="55"/>
       <c r="M15" s="56"/>
       <c r="N15" s="56"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
     </row>
     <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="58"/>
@@ -6021,13 +6015,13 @@
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
       <c r="I16" s="56"/>
-      <c r="J16" s="153"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="58"/>
       <c r="L16" s="55"/>
       <c r="M16" s="56"/>
       <c r="N16" s="56"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
     </row>
     <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="58"/>
@@ -6039,31 +6033,31 @@
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
       <c r="I17" s="56"/>
-      <c r="J17" s="153"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="58"/>
       <c r="L17" s="55"/>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="58"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="57"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
     </row>
     <row r="19" spans="1:16" s="54" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60" t="s">
@@ -6106,29 +6100,37 @@
       <c r="P19" s="59"/>
     </row>
     <row r="20" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148" t="s">
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="F20:P20"/>
     <mergeCell ref="B5:B6"/>
@@ -6143,14 +6145,6 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
